--- a/biology/Botanique/Guatteria_guianensis/Guatteria_guianensis.xlsx
+++ b/biology/Botanique/Guatteria_guianensis/Guatteria_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria guianensis est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Apelemuɨ' (Wayãpi)[4], Pomme canelle (Créole), Mamanyaré (Nenge tongo) ou anciennement Abéremou (Galibi).
-Ailleurs, on l'appelle Envira-da-mata, Invira au Brésil, Muecantokaroriká (Makuna), Pö-ö-ká-no (Gwanano), Pweé-ka-no (Tukano et Desano) en Colombie, Moncapatamo (Huaorani), Yaris (Shuar)  en Équateur, Wáshi yéis, Wasri yais, Wuáshi yais (Shuar), Carahuasca, Espintana au Pérou[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria guianensis est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Apelemuɨ' (Wayãpi), Pomme canelle (Créole), Mamanyaré (Nenge tongo) ou anciennement Abéremou (Galibi).
+Ailleurs, on l'appelle Envira-da-mata, Invira au Brésil, Muecantokaroriká (Makuna), Pö-ö-ká-no (Gwanano), Pweé-ka-no (Tukano et Desano) en Colombie, Moncapatamo (Huaorani), Yaris (Shuar)  en Équateur, Wáshi yéis, Wasri yais, Wuáshi yais (Shuar), Carahuasca, Espintana au Pérou.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guatteria guianensis se caractérise par la combinaison de feuilles verruqueuses, souvent très grandes, avec une nervure marginale bien distincte, et à ses jeunes rameaux recouverts d'un indumentum velouté de poils bruns dressés, généralement frisés, lorsqu'ils sont jeunes, atteignant environ 0,5 mm de long.
 Guatteria guianensis est un arbre haut de 3-25 m pour 4-25 cm de diamètre.
@@ -531,7 +545,7 @@
 Les pétales sont verts, devenant crème, blancs ou jaunes, de forme elliptique, mesurant 20-35 x 12-17 mm, à face externe densément couverte de poils gris-brunâtre dressés à apprimés.
 Les étamines mesurent 2-3 mm, formant un bouclier conjonctif papilleux à glabre.
 On compte 20-75 monocarpes, de couleur verte, devenant noir rougeâtre à noir (bruns au séchage), de forme ellipsoïde, mesurant 13-25 x 8-15 mm, assez densément à faiblement couverts de poils dressés à apprimés, à apex arrondi, apiculé à l'extrémité (apiculum long de 0,5-1 mm), au stipe mesurant 4-10 x 1,5-2 mm, et à paroi épaisse de 0,5-1 mm.
-La graine mesure 15-25 x 6-9 mm, est de forme ellipsoïde, de couleur marron à marron-rougeâtre, à surface rugueuse, rainurée longitudinalement et transversalement, avec un raphé non distinct du reste de la graine[5].
+La graine mesure 15-25 x 6-9 mm, est de forme ellipsoïde, de couleur marron à marron-rougeâtre, à surface rugueuse, rainurée longitudinalement et transversalement, avec un raphé non distinct du reste de la graine.
 </t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria guianensis est présent en Colombie (Amazonas, Antioquia, Vaupés), en Guyane, en Équateur (Napo, Sucumbíos), au Pérou (Amazonas, Loreto, Madre de Dios, Pasco, San Martín) et au Brésil (Amapá, Amazonas, Pará, Rondônia)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria guianensis est présent en Colombie (Amazonas, Antioquia, Vaupés), en Guyane, en Équateur (Napo, Sucumbíos), au Pérou (Amazonas, Loreto, Madre de Dios, Pasco, San Martín) et au Brésil (Amapá, Amazonas, Pará, Rondônia).
 </t>
         </is>
       </c>
@@ -591,10 +607,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Guatteria guianensis dans les forêts de terre ferme, sur des sols argileux à sableux autour de 0-800 m d'altitude. Il fleurit de mars à décembre et fructifie toute l'année[5].
-Guatteria guianensis produit des phytolithes.[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Guatteria guianensis dans les forêts de terre ferme, sur des sols argileux à sableux autour de 0-800 m d'altitude. Il fleurit de mars à décembre et fructifie toute l'année.
+Guatteria guianensis produit des phytolithes.
 </t>
         </is>
       </c>
@@ -623,12 +641,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pulpe du fruit mûr de Guatteria guianensis est comestible et sucrée. Son bois est employé au Pérou pour la construction des maisons[5].
-La décoction amère de l'écorce utilisée chez les Wayãpi de Guyane comme remède de lavage externe pour la gale, et pour traiter les affections des organes génitaux masculins et féminins caractérisées par une douleur et avec accumulation de pus[7],[4].
-Chimie
-Guatteria guianensis contient des alcaloïdes bisbenzylisoquinoléiques et biphényliques[8],[9],[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe du fruit mûr de Guatteria guianensis est comestible et sucrée. Son bois est employé au Pérou pour la construction des maisons.
+La décoction amère de l'écorce utilisée chez les Wayãpi de Guyane comme remède de lavage externe pour la gale, et pour traiter les affections des organes génitaux masculins et féminins caractérisées par une douleur et avec accumulation de pus,.
 </t>
         </is>
       </c>
@@ -654,12 +672,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria guianensis contient des alcaloïdes bisbenzylisoquinoléiques et biphényliques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guatteria_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guatteria_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « ABEREMOA Guianenſis. (Tabula 245.) 
 Frutex viginti-pedalis 5 caulis ramoſus. Folia alterna, ampla, ovata, oblonga, acuta, integerrima, ſupernè &amp; infernè tomentoſa, obſcurè viridia, ſubſeſſilia. Flores ſolitarii, axillares. 
 Fructum ferebat Decembri. 
